--- a/data/trans_camb/P16A11-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A11-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16A11-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A11-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,32</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,15</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,69</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,99</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,14</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,64</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,27</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,21</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,06</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,12; 13,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,1; 9,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,27; 16,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,35; 12,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,97; 9,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,17; 20,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,5; 11,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,19; 8,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,08; 17,82</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,7%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,26%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,01%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,87%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,34%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,71%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,99%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,4%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,32%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,13; 57,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,49; 41,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,57; 70,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,49; 40,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,76; 29,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>37,28; 65,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,29; 41,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,98; 28,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,54; 62,51</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,19</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,15</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,73</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,29</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,45</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,23</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,24; 4,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,46; 6,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,28; 11,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,43; 4,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,8; 6,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,43; 28,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,4; 4,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,99; 5,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,59; 17,98</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,46%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,46%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>142,89%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,3%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>78,88%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>188,51%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,86%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,74%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>164,95%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,74; 90,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,18; 108,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>98,69; 203,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,09; 78,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>40,58; 129,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>101,94; 518,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,41; 75,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43,38; 101,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>113,6; 286,92</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,12</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,38</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,58</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,0; 5,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,77; 5,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,47; 12,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,91; 3,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,81; 2,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,37; 6,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,62; 3,79</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,79; 2,88</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,35; 8,81</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,89%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,74%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>116,45%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,3%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,39%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,49%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,25%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>94,99%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,95; 90,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,04; 85,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>55,52; 213,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,12; 88,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,89; 58,62</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,53; 163,88</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,64; 60,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,92; 47,51</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>52,29; 150,36</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,65</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,26</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,49</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,14</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,65</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,25; 5,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,47; 3,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,86; 8,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,27; 6,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 2,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,66; 16,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,82; 5,41</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,31; 2,86</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,88; 10,94</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,74%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,63%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,7%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,54%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,93%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,2%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,27%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,33%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,34; 47,26</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,48; 32,41</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,72; 69,66</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,77; 39,87</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,93; 18,9</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,36; 100,85</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,11; 38,31</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,99; 20,06</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,47; 77,07</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A11-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A11-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,69</t>
+          <t>11,2</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,64</t>
+          <t>16,4</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>15,06</t>
+          <t>14,56</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,27; 16,51</t>
+          <t>6,84; 15,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,17; 20,65</t>
+          <t>13,03; 20,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,08; 17,82</t>
+          <t>11,66; 17,46</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>46,01%</t>
+          <t>44,12%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>49,71%</t>
+          <t>48,99%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>50,32%</t>
+          <t>48,67%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>27,57; 70,69</t>
+          <t>25,5; 68,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>37,28; 65,18</t>
+          <t>36,53; 64,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>38,54; 62,51</t>
+          <t>37,02; 60,68</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,15</t>
+          <t>7,35</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,29</t>
+          <t>14,58</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>10,23</t>
+          <t>10,92</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,28; 11,12</t>
+          <t>3,38; 9,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,43; 28,01</t>
+          <t>6,08; 40,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,59; 17,98</t>
+          <t>6,32; 24,17</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>142,89%</t>
+          <t>114,86%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>188,51%</t>
+          <t>243,31%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>164,95%</t>
+          <t>176,03%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>98,69; 203,05</t>
+          <t>53,55; 174,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>101,94; 518,94</t>
+          <t>96,6; 760,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>113,6; 286,92</t>
+          <t>97,88; 385,81</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,12</t>
+          <t>9,02</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,38</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>6,58</t>
+          <t>6,52</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,47; 12,64</t>
+          <t>5,32; 12,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,37; 6,98</t>
+          <t>1,26; 6,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,35; 8,81</t>
+          <t>4,19; 8,7</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>116,45%</t>
+          <t>115,08%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>74,49%</t>
+          <t>71,85%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>94,99%</t>
+          <t>94,01%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>55,52; 213,64</t>
+          <t>53,85; 207,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>15,53; 163,88</t>
+          <t>13,53; 158,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>52,29; 150,36</t>
+          <t>51,81; 148,85</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,65</t>
+          <t>5,11</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,49</t>
+          <t>8,04</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6,65</t>
+          <t>6,64</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,86; 8,32</t>
+          <t>1,12; 7,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,66; 16,15</t>
+          <t>3,14; 24,6</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,88; 10,94</t>
+          <t>3,6; 13,85</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>52,7%</t>
+          <t>40,49%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>38,93%</t>
+          <t>48,25%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>45,33%</t>
+          <t>45,26%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>35,72; 69,66</t>
+          <t>9,23; 58,66</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>21,36; 100,85</t>
+          <t>18,35; 149,11</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>32,47; 77,07</t>
+          <t>23,7; 96,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A11-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A11-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,12; 13,24</t>
+          <t>5,36; 13,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,1; 9,74</t>
+          <t>0,73; 9,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,84; 15,93</t>
+          <t>6,93; 15,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,35; 12,48</t>
+          <t>5,22; 12,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,97; 9,6</t>
+          <t>1,18; 9,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,03; 20,33</t>
+          <t>12,45; 20,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,5; 11,9</t>
+          <t>6,64; 12,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,19; 8,23</t>
+          <t>2,32; 8,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,66; 17,46</t>
+          <t>11,61; 17,66</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,13; 57,03</t>
+          <t>19,65; 56,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,49; 41,83</t>
+          <t>2,94; 38,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,5; 68,87</t>
+          <t>25,8; 65,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,49; 40,03</t>
+          <t>14,69; 40,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,76; 29,86</t>
+          <t>3,41; 29,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,53; 64,1</t>
+          <t>35,37; 64,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,29; 41,5</t>
+          <t>21,15; 42,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,98; 28,99</t>
+          <t>7,45; 28,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>37,02; 60,68</t>
+          <t>36,94; 61,7</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 4,71</t>
+          <t>1,22; 4,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,46; 6,01</t>
+          <t>2,39; 5,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,38; 9,81</t>
+          <t>3,39; 9,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,43; 4,18</t>
+          <t>0,55; 4,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,8; 6,61</t>
+          <t>2,6; 6,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,08; 40,66</t>
+          <t>6,08; 37,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,4; 4,05</t>
+          <t>1,23; 3,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,99; 5,75</t>
+          <t>3,1; 5,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,32; 24,17</t>
+          <t>6,3; 25,13</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,74; 90,9</t>
+          <t>15,22; 84,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>33,18; 108,19</t>
+          <t>29,66; 107,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>53,55; 174,32</t>
+          <t>52,3; 169,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,09; 78,86</t>
+          <t>7,5; 77,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>40,58; 129,54</t>
+          <t>37,04; 124,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,6; 760,78</t>
+          <t>95,52; 627,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,41; 75,03</t>
+          <t>18,36; 67,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>43,38; 101,72</t>
+          <t>43,15; 103,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>97,88; 385,81</t>
+          <t>97,38; 415,96</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 5,52</t>
+          <t>-2,14; 5,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 5,32</t>
+          <t>-1,92; 5,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,32; 12,68</t>
+          <t>5,68; 12,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 3,9</t>
+          <t>-2,95; 4,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 2,58</t>
+          <t>-3,19; 2,78</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,26; 6,86</t>
+          <t>1,61; 6,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 3,79</t>
+          <t>-1,2; 3,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 2,88</t>
+          <t>-2,05; 2,92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,19; 8,7</t>
+          <t>4,02; 8,53</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-20,95; 90,6</t>
+          <t>-21,58; 82,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-19,04; 85,79</t>
+          <t>-19,6; 82,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>53,85; 207,38</t>
+          <t>57,6; 207,23</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-40,12; 88,11</t>
+          <t>-37,34; 95,85</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-50,89; 58,62</t>
+          <t>-44,84; 69,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,53; 158,34</t>
+          <t>18,42; 152,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-21,64; 60,36</t>
+          <t>-16,06; 60,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-22,92; 47,51</t>
+          <t>-24,97; 51,01</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>51,81; 148,85</t>
+          <t>47,94; 144,32</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,25; 5,71</t>
+          <t>2,2; 5,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,47; 3,85</t>
+          <t>0,6; 4,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,12; 7,11</t>
+          <t>1,0; 7,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,27; 6,3</t>
+          <t>2,43; 6,18</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 2,92</t>
+          <t>-0,66; 2,96</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,14; 24,6</t>
+          <t>2,8; 20,51</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,82; 5,41</t>
+          <t>2,88; 5,43</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,86</t>
+          <t>0,33; 2,87</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,6; 13,85</t>
+          <t>3,68; 14,85</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>16,34; 47,26</t>
+          <t>16,48; 47,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,48; 32,41</t>
+          <t>4,49; 33,99</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>9,23; 58,66</t>
+          <t>8,69; 60,53</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>12,77; 39,87</t>
+          <t>13,53; 38,76</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 18,9</t>
+          <t>-3,68; 18,88</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>18,35; 149,11</t>
+          <t>16,28; 126,74</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>18,11; 38,31</t>
+          <t>18,74; 38,73</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,99; 20,06</t>
+          <t>2,22; 20,51</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>23,7; 96,63</t>
+          <t>24,74; 106,28</t>
         </is>
       </c>
     </row>
